--- a/ECEN361_burndownchart(filled out).xlsx
+++ b/ECEN361_burndownchart(filled out).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shannonvega/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorg/Library/CloudStorage/GoogleDrive-trevorgibb7@gmail.com/My Drive/School/2023/Spring 2023 School Files/Embedded Systems (ECEN 361-A1)/Pomodoro-Globe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D371E21-2946-3D44-A5F8-2FB3AEE0168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D284D2-77A2-544B-A630-A0DB71A562C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
@@ -1038,52 +1038,52 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,52 +1768,52 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3870,7 +3870,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4149,7 +4149,9 @@
         <v>2</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
       <c r="J8" s="20">
         <v>1</v>
       </c>
@@ -4171,11 +4173,11 @@
       <c r="V8" s="20"/>
       <c r="W8" s="27">
         <f>B8-SUM(C8:V8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="17">
         <f>IFERROR(1-(W8/B8),"")</f>
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4193,7 +4195,9 @@
       <c r="F9" s="23">
         <v>1</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
       <c r="H9" s="23">
         <v>1</v>
       </c>
@@ -4219,11 +4223,11 @@
       <c r="V9" s="23"/>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W37" si="0">B9-SUM(C9:V9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="17">
         <f>IFERROR(1-(W9/B9),"")</f>
-        <v>0.85714285714285721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,7 +4242,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
       <c r="G10" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="22"/>
@@ -4257,11 +4261,11 @@
       <c r="V10" s="23"/>
       <c r="W10" s="28">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X10" s="17">
         <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4292,7 +4296,9 @@
         <v>1</v>
       </c>
       <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
+      <c r="N11" s="23">
+        <v>1</v>
+      </c>
       <c r="O11" s="22"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="22"/>
@@ -4303,11 +4309,11 @@
       <c r="V11" s="23"/>
       <c r="W11" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="17">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4332,7 +4338,9 @@
       <c r="I12" s="22">
         <v>1</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="23">
+        <v>1</v>
+      </c>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="22"/>
@@ -4347,11 +4355,11 @@
       <c r="V12" s="23"/>
       <c r="W12" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="17">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5180,75 +5188,75 @@
       </c>
       <c r="G38" s="11">
         <f t="shared" si="2"/>
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="K38" s="11">
         <f t="shared" si="2"/>
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="L38" s="11">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N38" s="11">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="O38" s="11">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="P38" s="11">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="11">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="R38" s="11">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="S38" s="11">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T38" s="11">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="U38" s="11">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="V38" s="11">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>0.84482758620689657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">

--- a/ECEN361_burndownchart(filled out).xlsx
+++ b/ECEN361_burndownchart(filled out).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorg/Library/CloudStorage/GoogleDrive-trevorgibb7@gmail.com/My Drive/School/2023/Spring 2023 School Files/Embedded Systems (ECEN 361-A1)/Pomodoro-Globe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shannonvega/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D284D2-77A2-544B-A630-A0DB71A562C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DB4C99-6334-4E40-AD8D-AD112CAD0E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Burndown Chart</t>
   </si>
@@ -151,19 +151,16 @@
     <t>Sprint Number:</t>
   </si>
   <si>
-    <t>Research possible microcontrollers</t>
+    <t>Order components and assemble</t>
   </si>
   <si>
-    <t>Research/brainstorm overall look of the device</t>
+    <t>Test each component (Display, buttons, alarm etc)</t>
   </si>
   <si>
-    <t>What language will we code in</t>
+    <t>Start with simple code</t>
   </si>
   <si>
-    <t>Research other hardware components we might need</t>
-  </si>
-  <si>
-    <t>Research hardware requirements of the device</t>
+    <t xml:space="preserve">Continue Research for the project </t>
   </si>
 </sst>
 </file>
@@ -1023,67 +1020,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,34 +1213,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.1</c:v>
+                  <c:v>24.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.200000000000003</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.300000000000004</c:v>
+                  <c:v>18.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.400000000000006</c:v>
+                  <c:v>16.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.500000000000005</c:v>
+                  <c:v>13.500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.600000000000005</c:v>
+                  <c:v>10.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7000000000000046</c:v>
+                  <c:v>8.100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8000000000000043</c:v>
+                  <c:v>5.4000000000000048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9000000000000044</c:v>
+                  <c:v>2.7000000000000046</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.4408920985006262E-15</c:v>
@@ -1753,67 +1750,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,34 +1992,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.1</c:v>
+                  <c:v>24.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.200000000000003</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.300000000000004</c:v>
+                  <c:v>18.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.400000000000006</c:v>
+                  <c:v>16.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.500000000000005</c:v>
+                  <c:v>13.500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.600000000000005</c:v>
+                  <c:v>10.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7000000000000046</c:v>
+                  <c:v>8.100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8000000000000043</c:v>
+                  <c:v>5.4000000000000048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9000000000000044</c:v>
+                  <c:v>2.7000000000000046</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.4408920985006262E-15</c:v>
@@ -3870,7 +3867,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3948,7 +3945,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="33">
         <f>B38</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -4134,34 +4131,22 @@
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
+      <c r="D8" s="20"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="19">
-        <v>2</v>
-      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="20">
-        <v>1</v>
-      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="20">
-        <v>1</v>
-      </c>
-      <c r="M8" s="19">
-        <v>3</v>
-      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="20"/>
       <c r="O8" s="19"/>
       <c r="P8" s="20"/>
@@ -4173,48 +4158,34 @@
       <c r="V8" s="20"/>
       <c r="W8" s="27">
         <f>B8-SUM(C8:V8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X8" s="17">
         <f>IFERROR(1-(W8/B8),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1</v>
-      </c>
-      <c r="G9" s="22">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23">
-        <v>1</v>
-      </c>
-      <c r="I9" s="22">
-        <v>1</v>
-      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="22">
-        <v>1</v>
-      </c>
+      <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="22"/>
       <c r="N9" s="23"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="23">
-        <v>1</v>
-      </c>
+      <c r="P9" s="23"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
       <c r="S9" s="22"/>
@@ -4223,11 +4194,11 @@
       <c r="V9" s="23"/>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W37" si="0">B9-SUM(C9:V9)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X9" s="17">
         <f>IFERROR(1-(W9/B9),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4235,15 +4206,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="22">
-        <v>1</v>
-      </c>
+      <c r="G10" s="22"/>
       <c r="H10" s="23"/>
       <c r="I10" s="22"/>
       <c r="J10" s="23"/>
@@ -4261,11 +4230,11 @@
       <c r="V10" s="23"/>
       <c r="W10" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10" s="17">
         <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4276,29 +4245,17 @@
         <v>6</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="23">
-        <v>1</v>
-      </c>
+      <c r="D11" s="23"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="23">
-        <v>1</v>
-      </c>
+      <c r="F11" s="23"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="22">
-        <v>1</v>
-      </c>
+      <c r="I11" s="22"/>
       <c r="J11" s="23"/>
-      <c r="K11" s="22">
-        <v>1</v>
-      </c>
-      <c r="L11" s="23">
-        <v>1</v>
-      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="23">
-        <v>1</v>
-      </c>
+      <c r="N11" s="23"/>
       <c r="O11" s="22"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="22"/>
@@ -4309,38 +4266,24 @@
       <c r="V11" s="23"/>
       <c r="W11" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X11" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="21">
-        <v>6</v>
-      </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="22">
-        <v>2</v>
-      </c>
+      <c r="E12" s="22"/>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="23">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22">
-        <v>1</v>
-      </c>
-      <c r="J12" s="23">
-        <v>1</v>
-      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="22"/>
@@ -4357,9 +4300,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5168,95 +5111,95 @@
       </c>
       <c r="B38" s="10">
         <f>SUM(B8:B37)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,B38,B38-SUM(C8:C37)),NA())</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="11">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,C38,C38-SUM(D8:D37)),NA())</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G38" s="11">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K38" s="11">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="L38" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="N38" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="O38" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="P38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5265,43 +5208,43 @@
       </c>
       <c r="B39" s="12">
         <f>SUM(B8:B37)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C39" s="13">
         <f>IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>26.1</v>
+        <v>24.3</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" ref="D39:V39" si="3">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>23.200000000000003</v>
+        <v>21.6</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="3"/>
-        <v>20.300000000000004</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="3"/>
-        <v>17.400000000000006</v>
+        <v>16.200000000000003</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="3"/>
-        <v>14.500000000000005</v>
+        <v>13.500000000000004</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="3"/>
-        <v>11.600000000000005</v>
+        <v>10.800000000000004</v>
       </c>
       <c r="I39" s="13">
         <f t="shared" si="3"/>
-        <v>8.7000000000000046</v>
+        <v>8.100000000000005</v>
       </c>
       <c r="J39" s="13">
         <f t="shared" si="3"/>
-        <v>5.8000000000000043</v>
+        <v>5.4000000000000048</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="3"/>
-        <v>2.9000000000000044</v>
+        <v>2.7000000000000046</v>
       </c>
       <c r="L39" s="13">
         <f t="shared" si="3"/>

--- a/ECEN361_burndownchart(filled out).xlsx
+++ b/ECEN361_burndownchart(filled out).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorg/Library/CloudStorage/GoogleDrive-trevorgibb7@gmail.com/My Drive/School/2023/Spring 2023 School Files/Embedded Systems (ECEN 361-A1)/Pomodoro-Globe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\2023\Spring 2023 School Files\Embedded Systems (ECEN 361-A1)\Pomodoro-Globe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D284D2-77A2-544B-A630-A0DB71A562C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7E8492-D100-43BF-8AF6-72AC15B57913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
     <sheet name="Burndown Chart" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Burndown Chart</t>
   </si>
@@ -151,19 +151,16 @@
     <t>Sprint Number:</t>
   </si>
   <si>
-    <t>Research possible microcontrollers</t>
+    <t>Make wiring diagram</t>
   </si>
   <si>
-    <t>Research/brainstorm overall look of the device</t>
+    <t>Write code</t>
   </si>
   <si>
-    <t>What language will we code in</t>
+    <t>Assemble device</t>
   </si>
   <si>
-    <t>Research other hardware components we might need</t>
-  </si>
-  <si>
-    <t>Research hardware requirements of the device</t>
+    <t>Test project</t>
   </si>
 </sst>
 </file>
@@ -1023,67 +1020,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,37 +1213,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.1</c:v>
+                  <c:v>15.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.200000000000003</c:v>
+                  <c:v>13.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.300000000000004</c:v>
+                  <c:v>11.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.400000000000006</c:v>
+                  <c:v>10.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.500000000000005</c:v>
+                  <c:v>8.5000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.600000000000005</c:v>
+                  <c:v>6.8000000000000034</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7000000000000046</c:v>
+                  <c:v>5.1000000000000032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8000000000000043</c:v>
+                  <c:v>3.400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9000000000000044</c:v>
+                  <c:v>1.7000000000000031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4408920985006262E-15</c:v>
+                  <c:v>3.1086244689504383E-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1753,67 +1750,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,37 +1992,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.1</c:v>
+                  <c:v>15.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.200000000000003</c:v>
+                  <c:v>13.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.300000000000004</c:v>
+                  <c:v>11.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.400000000000006</c:v>
+                  <c:v>10.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.500000000000005</c:v>
+                  <c:v>8.5000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.600000000000005</c:v>
+                  <c:v>6.8000000000000034</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7000000000000046</c:v>
+                  <c:v>5.1000000000000032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8000000000000043</c:v>
+                  <c:v>3.400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9000000000000044</c:v>
+                  <c:v>1.7000000000000031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4408920985006262E-15</c:v>
+                  <c:v>3.1086244689504383E-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3870,18 +3867,18 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="22" width="5.6640625" customWidth="1"/>
-    <col min="24" max="24" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="22" width="5.7109375" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37"/>
       <c r="B1" s="37"/>
       <c r="C1" s="6"/>
@@ -3907,7 +3904,7 @@
       <c r="W1" s="15"/>
       <c r="X1" s="16"/>
     </row>
-    <row r="2" spans="1:24" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="40" t="s">
@@ -3937,7 +3934,7 @@
       <c r="W2" s="15"/>
       <c r="X2" s="16"/>
     </row>
-    <row r="3" spans="1:24" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="40" t="s">
@@ -3948,7 +3945,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="33">
         <f>B38</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -3968,7 +3965,7 @@
       <c r="W3" s="15"/>
       <c r="X3" s="16"/>
     </row>
-    <row r="4" spans="1:24" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="40" t="s">
@@ -3998,7 +3995,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
@@ -4026,7 +4023,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="16"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>1</v>
       </c>
@@ -4058,7 +4055,7 @@
       </c>
       <c r="X6" s="42"/>
     </row>
-    <row r="7" spans="1:24" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4132,36 +4129,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="18">
-        <v>9</v>
-      </c>
-      <c r="C8" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
       <c r="D8" s="20">
         <v>1</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="19">
-        <v>2</v>
-      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="20">
-        <v>1</v>
-      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="20">
-        <v>1</v>
-      </c>
-      <c r="M8" s="19">
-        <v>3</v>
-      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="20"/>
       <c r="O8" s="19"/>
       <c r="P8" s="20"/>
@@ -4173,48 +4164,42 @@
       <c r="V8" s="20"/>
       <c r="W8" s="27">
         <f>B8-SUM(C8:V8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X8" s="17">
         <f>IFERROR(1-(W8/B8),"")</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="21">
+        <v>5</v>
+      </c>
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="21">
-        <v>7</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
       <c r="E9" s="22">
         <v>1</v>
       </c>
       <c r="F9" s="23">
         <v>1</v>
       </c>
-      <c r="G9" s="22">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23">
-        <v>1</v>
-      </c>
-      <c r="I9" s="22">
-        <v>1</v>
-      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="22">
-        <v>1</v>
-      </c>
+      <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="22"/>
       <c r="N9" s="23"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="23">
-        <v>1</v>
-      </c>
+      <c r="P9" s="23"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
       <c r="S9" s="22"/>
@@ -4223,27 +4208,29 @@
       <c r="V9" s="23"/>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W37" si="0">B9-SUM(C9:V9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="17">
         <f>IFERROR(1-(W9/B9),"")</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="21">
+        <v>5</v>
+      </c>
+      <c r="C10" s="22">
         <v>1</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="22">
-        <v>1</v>
-      </c>
+      <c r="G10" s="22"/>
       <c r="H10" s="23"/>
       <c r="I10" s="22"/>
       <c r="J10" s="23"/>
@@ -4261,44 +4248,32 @@
       <c r="V10" s="23"/>
       <c r="W10" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10" s="17">
         <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="23">
-        <v>1</v>
-      </c>
+      <c r="D11" s="23"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="23">
-        <v>1</v>
-      </c>
+      <c r="F11" s="23"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="22">
-        <v>1</v>
-      </c>
+      <c r="I11" s="22"/>
       <c r="J11" s="23"/>
-      <c r="K11" s="22">
-        <v>1</v>
-      </c>
-      <c r="L11" s="23">
-        <v>1</v>
-      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="23">
-        <v>1</v>
-      </c>
+      <c r="N11" s="23"/>
       <c r="O11" s="22"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="22"/>
@@ -4309,38 +4284,24 @@
       <c r="V11" s="23"/>
       <c r="W11" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="21">
-        <v>6</v>
-      </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="22">
-        <v>2</v>
-      </c>
+      <c r="E12" s="22"/>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="23">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22">
-        <v>1</v>
-      </c>
-      <c r="J12" s="23">
-        <v>1</v>
-      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="22"/>
@@ -4357,12 +4318,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -4394,7 +4355,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -4426,7 +4387,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -4458,7 +4419,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
@@ -4490,7 +4451,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -4522,7 +4483,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -4554,7 +4515,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -4586,7 +4547,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -4618,7 +4579,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -4650,7 +4611,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
@@ -4682,7 +4643,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
@@ -4714,7 +4675,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -4746,7 +4707,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -4778,7 +4739,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -4810,7 +4771,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -4842,7 +4803,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -4874,7 +4835,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -4906,7 +4867,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -4938,7 +4899,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -4970,7 +4931,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -5002,7 +4963,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -5034,7 +4995,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -5066,7 +5027,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -5098,7 +5059,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -5130,7 +5091,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -5162,150 +5123,150 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="10">
         <f>SUM(B8:B37)</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,B38,B38-SUM(C8:C37)),NA())</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D38" s="11">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,C38,C38-SUM(D8:D37)),NA())</f>
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G38" s="11">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K38" s="11">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L38" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N38" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O38" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="12">
         <f>SUM(B8:B37)</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C39" s="13">
         <f>IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>26.1</v>
+        <v>15.3</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" ref="D39:V39" si="3">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>23.200000000000003</v>
+        <v>13.600000000000001</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="3"/>
-        <v>20.300000000000004</v>
+        <v>11.900000000000002</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="3"/>
-        <v>17.400000000000006</v>
+        <v>10.200000000000003</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="3"/>
-        <v>14.500000000000005</v>
+        <v>8.5000000000000036</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="3"/>
-        <v>11.600000000000005</v>
+        <v>6.8000000000000034</v>
       </c>
       <c r="I39" s="13">
         <f t="shared" si="3"/>
-        <v>8.7000000000000046</v>
+        <v>5.1000000000000032</v>
       </c>
       <c r="J39" s="13">
         <f t="shared" si="3"/>
-        <v>5.8000000000000043</v>
+        <v>3.400000000000003</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="3"/>
-        <v>2.9000000000000044</v>
+        <v>1.7000000000000031</v>
       </c>
       <c r="L39" s="13">
         <f t="shared" si="3"/>
-        <v>4.4408920985006262E-15</v>
+        <v>3.1086244689504383E-15</v>
       </c>
       <c r="M39" s="13" t="str">
         <f t="shared" si="3"/>
@@ -5350,7 +5311,7 @@
       <c r="W39" s="31"/>
       <c r="X39" s="32"/>
     </row>
-    <row r="40" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:B2"/>
@@ -5414,7 +5375,7 @@
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
